--- a/evaluation/evaluation_area_1_parameters.xlsx
+++ b/evaluation/evaluation_area_1_parameters.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP30"/>
+  <dimension ref="A1:CQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,30 +882,35 @@
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
+          <t>num_violations</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
           <t>node_height_-0.2_count</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>node_height_3.0_count</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>node_height_3.2_count</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>node_height_-0.4_count</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>node_height_-0.8_count</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>node_height_-0.6_count</t>
         </is>
@@ -1270,12 +1275,15 @@
       <c r="CJ2" t="n">
         <v>0.00574052812858783</v>
       </c>
-      <c r="CK2" t="inlineStr"/>
+      <c r="CK2" t="n">
+        <v>7</v>
+      </c>
       <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr"/>
       <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1637,17 +1645,20 @@
         <v>0.01156761069006781</v>
       </c>
       <c r="CK3" t="n">
+        <v>44</v>
+      </c>
+      <c r="CL3" t="n">
         <v>0.0003988831272437176</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>0.004786597526924611</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CN3" t="n">
         <v>0.0007977662544874351</v>
       </c>
-      <c r="CN3" t="inlineStr"/>
       <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2009,13 +2020,16 @@
         <v>0.0170940170940171</v>
       </c>
       <c r="CK4" t="n">
+        <v>55</v>
+      </c>
+      <c r="CL4" t="n">
         <v>0.0005698005698005698</v>
       </c>
-      <c r="CL4" t="inlineStr"/>
       <c r="CM4" t="inlineStr"/>
       <c r="CN4" t="inlineStr"/>
       <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2377,19 +2391,22 @@
         <v>0.009292720702116675</v>
       </c>
       <c r="CK5" t="n">
+        <v>50</v>
+      </c>
+      <c r="CL5" t="n">
         <v>0.0005162622612287042</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CM5" t="n">
         <v>0.002581311306143521</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0.0005162622612287042</v>
       </c>
       <c r="CN5" t="n">
         <v>0.0005162622612287042</v>
       </c>
-      <c r="CO5" t="inlineStr"/>
+      <c r="CO5" t="n">
+        <v>0.0005162622612287042</v>
+      </c>
       <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2750,14 +2767,17 @@
       <c r="CJ6" t="n">
         <v>0.007407407407407408</v>
       </c>
-      <c r="CK6" t="inlineStr"/>
-      <c r="CL6" t="n">
+      <c r="CK6" t="n">
+        <v>20</v>
+      </c>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="n">
         <v>0.00308641975308642</v>
       </c>
-      <c r="CM6" t="inlineStr"/>
       <c r="CN6" t="inlineStr"/>
       <c r="CO6" t="inlineStr"/>
       <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3119,21 +3139,24 @@
         <v>0.02102689486552567</v>
       </c>
       <c r="CK7" t="n">
+        <v>72</v>
+      </c>
+      <c r="CL7" t="n">
         <v>0.0002444987775061124</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CM7" t="n">
         <v>0.005378973105134474</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CN7" t="n">
         <v>0.0009779951100244498</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CO7" t="n">
         <v>0.0002444987775061124</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CP7" t="n">
         <v>0.0004889975550122249</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CQ7" t="n">
         <v>0.001222493887530562</v>
       </c>
     </row>
@@ -3496,16 +3519,19 @@
       <c r="CJ8" t="n">
         <v>0.01195987654320988</v>
       </c>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="n">
+      <c r="CK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="n">
         <v>0.004243827160493827</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CN8" t="n">
         <v>0.0007716049382716049</v>
       </c>
-      <c r="CN8" t="inlineStr"/>
       <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3866,14 +3892,17 @@
       <c r="CJ9" t="n">
         <v>0.004396678065461651</v>
       </c>
-      <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="n">
+      <c r="CK9" t="n">
+        <v>33</v>
+      </c>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="n">
         <v>0.0009770395701025891</v>
       </c>
-      <c r="CM9" t="inlineStr"/>
       <c r="CN9" t="inlineStr"/>
       <c r="CO9" t="inlineStr"/>
       <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4234,12 +4263,15 @@
       <c r="CJ10" t="n">
         <v>0.008340283569641367</v>
       </c>
-      <c r="CK10" t="inlineStr"/>
+      <c r="CK10" t="n">
+        <v>45</v>
+      </c>
       <c r="CL10" t="inlineStr"/>
       <c r="CM10" t="inlineStr"/>
       <c r="CN10" t="inlineStr"/>
       <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4600,16 +4632,19 @@
       <c r="CJ11" t="n">
         <v>0.09347120843471209</v>
       </c>
-      <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="n">
+      <c r="CK11" t="n">
+        <v>63</v>
+      </c>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="n">
         <v>0.1315896188158962</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CN11" t="n">
         <v>0.0381184103811841</v>
       </c>
-      <c r="CN11" t="inlineStr"/>
       <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4971,17 +5006,20 @@
         <v>0.00398406374501992</v>
       </c>
       <c r="CK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="CL12" t="n">
         <v>0.0004426737494466578</v>
       </c>
-      <c r="CL12" t="inlineStr"/>
       <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="n">
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="n">
         <v>0.0008853474988933156</v>
       </c>
-      <c r="CO12" t="n">
+      <c r="CP12" t="n">
         <v>0.0004426737494466578</v>
       </c>
-      <c r="CP12" t="n">
+      <c r="CQ12" t="n">
         <v>0.0004426737494466578</v>
       </c>
     </row>
@@ -5270,6 +5308,7 @@
       <c r="CN13" t="inlineStr"/>
       <c r="CO13" t="inlineStr"/>
       <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5631,17 +5670,20 @@
         <v>0.00463768115942029</v>
       </c>
       <c r="CK14" t="n">
+        <v>31</v>
+      </c>
+      <c r="CL14" t="n">
         <v>0.0005797101449275362</v>
       </c>
-      <c r="CL14" t="n">
+      <c r="CM14" t="n">
         <v>0.006376811594202898</v>
       </c>
-      <c r="CM14" t="n">
+      <c r="CN14" t="n">
         <v>0.001739130434782609</v>
       </c>
-      <c r="CN14" t="inlineStr"/>
       <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6003,17 +6045,20 @@
         <v>0.1096968294376302</v>
       </c>
       <c r="CK15" t="n">
+        <v>93</v>
+      </c>
+      <c r="CL15" t="n">
         <v>0.001157139551029854</v>
       </c>
-      <c r="CL15" t="n">
+      <c r="CM15" t="n">
         <v>0.1842166165239528</v>
       </c>
-      <c r="CM15" t="n">
+      <c r="CN15" t="n">
         <v>0.09442258736403611</v>
       </c>
-      <c r="CN15" t="inlineStr"/>
       <c r="CO15" t="inlineStr"/>
-      <c r="CP15" t="n">
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="n">
         <v>0.0004628558204119417</v>
       </c>
     </row>
@@ -6377,17 +6422,20 @@
         <v>0.01465302737074924</v>
       </c>
       <c r="CK16" t="n">
+        <v>42</v>
+      </c>
+      <c r="CL16" t="n">
         <v>0.0002764722145424385</v>
       </c>
-      <c r="CL16" t="n">
+      <c r="CM16" t="n">
         <v>0.001105888858169754</v>
       </c>
-      <c r="CM16" t="n">
+      <c r="CN16" t="n">
         <v>0.0002764722145424385</v>
       </c>
-      <c r="CN16" t="inlineStr"/>
       <c r="CO16" t="inlineStr"/>
       <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6748,14 +6796,17 @@
       <c r="CJ17" t="n">
         <v>0.00913937547600914</v>
       </c>
-      <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="n">
+      <c r="CK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="n">
         <v>0.0007616146230007616</v>
       </c>
-      <c r="CM17" t="inlineStr"/>
       <c r="CN17" t="inlineStr"/>
       <c r="CO17" t="inlineStr"/>
       <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7116,14 +7167,17 @@
       <c r="CJ18" t="n">
         <v>0.0124913254684247</v>
       </c>
-      <c r="CK18" t="inlineStr"/>
-      <c r="CL18" t="n">
+      <c r="CK18" t="n">
+        <v>12</v>
+      </c>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="n">
         <v>0.0006939625260235947</v>
       </c>
-      <c r="CM18" t="inlineStr"/>
       <c r="CN18" t="inlineStr"/>
       <c r="CO18" t="inlineStr"/>
       <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7484,14 +7538,17 @@
       <c r="CJ19" t="n">
         <v>0.0006031363088057901</v>
       </c>
-      <c r="CK19" t="inlineStr"/>
+      <c r="CK19" t="n">
+        <v>30</v>
+      </c>
       <c r="CL19" t="inlineStr"/>
       <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="n">
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="n">
         <v>0.000301568154402895</v>
       </c>
-      <c r="CO19" t="inlineStr"/>
-      <c r="CP19" t="n">
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="n">
         <v>0.0009047044632086852</v>
       </c>
     </row>
@@ -7855,15 +7912,18 @@
         <v>0.005913272010512484</v>
       </c>
       <c r="CK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="CL20" t="n">
         <v>0.001314060446780552</v>
       </c>
-      <c r="CL20" t="n">
+      <c r="CM20" t="n">
         <v>0.003942181340341655</v>
       </c>
-      <c r="CM20" t="inlineStr"/>
       <c r="CN20" t="inlineStr"/>
       <c r="CO20" t="inlineStr"/>
       <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8225,15 +8285,18 @@
         <v>0.002202643171806168</v>
       </c>
       <c r="CK21" t="n">
+        <v>46</v>
+      </c>
+      <c r="CL21" t="n">
         <v>0.0005506607929515419</v>
       </c>
-      <c r="CL21" t="n">
+      <c r="CM21" t="n">
         <v>0.001101321585903084</v>
       </c>
-      <c r="CM21" t="inlineStr"/>
       <c r="CN21" t="inlineStr"/>
       <c r="CO21" t="inlineStr"/>
       <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8595,17 +8658,20 @@
         <v>0.1291642314436002</v>
       </c>
       <c r="CK22" t="n">
+        <v>73</v>
+      </c>
+      <c r="CL22" t="n">
         <v>0.0002922267679719462</v>
       </c>
-      <c r="CL22" t="n">
+      <c r="CM22" t="n">
         <v>0.2074810052600818</v>
       </c>
-      <c r="CM22" t="n">
+      <c r="CN22" t="n">
         <v>0.09555815312682642</v>
       </c>
-      <c r="CN22" t="inlineStr"/>
       <c r="CO22" t="inlineStr"/>
       <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8967,15 +9033,18 @@
         <v>0.01185770750988142</v>
       </c>
       <c r="CK23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL23" t="n">
         <v>0.0007905138339920949</v>
       </c>
-      <c r="CL23" t="n">
+      <c r="CM23" t="n">
         <v>0.00158102766798419</v>
       </c>
-      <c r="CM23" t="inlineStr"/>
       <c r="CN23" t="inlineStr"/>
       <c r="CO23" t="inlineStr"/>
       <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9336,12 +9405,15 @@
       <c r="CJ24" t="n">
         <v>0.003395585738539898</v>
       </c>
-      <c r="CK24" t="inlineStr"/>
+      <c r="CK24" t="n">
+        <v>10</v>
+      </c>
       <c r="CL24" t="inlineStr"/>
       <c r="CM24" t="inlineStr"/>
       <c r="CN24" t="inlineStr"/>
       <c r="CO24" t="inlineStr"/>
       <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9702,16 +9774,19 @@
       <c r="CJ25" t="n">
         <v>0.002777777777777778</v>
       </c>
-      <c r="CK25" t="inlineStr"/>
-      <c r="CL25" t="n">
-        <v>0.000925925925925926</v>
-      </c>
+      <c r="CK25" t="n">
+        <v>20</v>
+      </c>
+      <c r="CL25" t="inlineStr"/>
       <c r="CM25" t="n">
         <v>0.000925925925925926</v>
       </c>
-      <c r="CN25" t="inlineStr"/>
+      <c r="CN25" t="n">
+        <v>0.000925925925925926</v>
+      </c>
       <c r="CO25" t="inlineStr"/>
       <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9998,6 +10073,7 @@
       <c r="CN26" t="inlineStr"/>
       <c r="CO26" t="inlineStr"/>
       <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10359,17 +10435,20 @@
         <v>0.00510677808727948</v>
       </c>
       <c r="CK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="CL27" t="n">
         <v>0.0004642525533890436</v>
       </c>
-      <c r="CL27" t="n">
+      <c r="CM27" t="n">
         <v>0.004642525533890436</v>
       </c>
-      <c r="CM27" t="n">
+      <c r="CN27" t="n">
         <v>0.0009285051067780873</v>
       </c>
-      <c r="CN27" t="inlineStr"/>
       <c r="CO27" t="inlineStr"/>
       <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10731,17 +10810,20 @@
         <v>0.0133418043202033</v>
       </c>
       <c r="CK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="CL28" t="n">
         <v>0.001270648030495553</v>
       </c>
-      <c r="CL28" t="n">
+      <c r="CM28" t="n">
         <v>0.002541296060991106</v>
       </c>
-      <c r="CM28" t="inlineStr"/>
       <c r="CN28" t="inlineStr"/>
-      <c r="CO28" t="n">
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="n">
         <v>0.0006353240152477764</v>
       </c>
-      <c r="CP28" t="n">
+      <c r="CQ28" t="n">
         <v>0.0006353240152477764</v>
       </c>
     </row>
@@ -11104,12 +11186,15 @@
       <c r="CJ29" t="n">
         <v>0.004708652148322542</v>
       </c>
-      <c r="CK29" t="inlineStr"/>
+      <c r="CK29" t="n">
+        <v>13</v>
+      </c>
       <c r="CL29" t="inlineStr"/>
       <c r="CM29" t="inlineStr"/>
       <c r="CN29" t="inlineStr"/>
       <c r="CO29" t="inlineStr"/>
       <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11470,14 +11555,17 @@
       <c r="CJ30" t="n">
         <v>0.008900190718372537</v>
       </c>
-      <c r="CK30" t="inlineStr"/>
-      <c r="CL30" t="n">
+      <c r="CK30" t="n">
+        <v>35</v>
+      </c>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="n">
         <v>0.0009535918626827717</v>
       </c>
-      <c r="CM30" t="inlineStr"/>
       <c r="CN30" t="inlineStr"/>
       <c r="CO30" t="inlineStr"/>
       <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11490,7 +11578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN9"/>
+  <dimension ref="A1:CO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11955,6 +12043,11 @@
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>num_violations</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>node_height_-0.6_count</t>
         </is>
@@ -12243,6 +12336,7 @@
       <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12612,7 +12706,10 @@
       <c r="CM3" t="n">
         <v>0.001739130434782609</v>
       </c>
-      <c r="CN3" t="inlineStr"/>
+      <c r="CN3" t="n">
+        <v>31</v>
+      </c>
+      <c r="CO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12981,6 +13078,9 @@
       </c>
       <c r="CM4" t="inlineStr"/>
       <c r="CN4" t="n">
+        <v>23</v>
+      </c>
+      <c r="CO4" t="n">
         <v>0.001221747098350641</v>
       </c>
     </row>
@@ -13348,7 +13448,10 @@
         <v>0.003556187766714083</v>
       </c>
       <c r="CM5" t="inlineStr"/>
-      <c r="CN5" t="inlineStr"/>
+      <c r="CN5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13716,7 +13819,10 @@
         <v>0.003317850033178501</v>
       </c>
       <c r="CM6" t="inlineStr"/>
-      <c r="CN6" t="inlineStr"/>
+      <c r="CN6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -14001,6 +14107,7 @@
       <c r="CL7" t="inlineStr"/>
       <c r="CM7" t="inlineStr"/>
       <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14285,6 +14392,7 @@
       <c r="CL8" t="inlineStr"/>
       <c r="CM8" t="inlineStr"/>
       <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14648,7 +14756,10 @@
       </c>
       <c r="CL9" t="inlineStr"/>
       <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
+      <c r="CN9" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14661,7 +14772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX28"/>
+  <dimension ref="A1:CY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15117,65 +15228,70 @@
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
+          <t>num_violations</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
           <t>node_height_-0.2_count</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>node_height_0.0_count</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>node_height_3.2_count</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>node_height_3.4_count</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>node_height_3.6_count</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>node_height_3.8_count</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>node_height_4.0_count</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>node_height_4.2_count</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>node_height_4.4_count</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>node_height_4.6_count</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>node_height_4.8_count</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>node_height_-0.8_count</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>node_height_-0.6_count</t>
         </is>
@@ -15543,7 +15659,9 @@
       <c r="CK2" t="n">
         <v>0.003331112591605596</v>
       </c>
-      <c r="CL2" t="inlineStr"/>
+      <c r="CL2" t="n">
+        <v>23</v>
+      </c>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr"/>
@@ -15556,6 +15674,7 @@
       <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15915,7 +16034,9 @@
         <v>0.001510574018126888</v>
       </c>
       <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
+      <c r="CL3" t="n">
+        <v>17</v>
+      </c>
       <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="inlineStr"/>
       <c r="CO3" t="inlineStr"/>
@@ -15928,6 +16049,7 @@
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16289,7 +16411,9 @@
       <c r="CK4" t="n">
         <v>0.006302521008403362</v>
       </c>
-      <c r="CL4" t="inlineStr"/>
+      <c r="CL4" t="n">
+        <v>25</v>
+      </c>
       <c r="CM4" t="inlineStr"/>
       <c r="CN4" t="inlineStr"/>
       <c r="CO4" t="inlineStr"/>
@@ -16302,6 +16426,7 @@
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16596,6 +16721,7 @@
       <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16890,6 +17016,7 @@
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17237,7 +17364,9 @@
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
+      <c r="CL7" t="n">
+        <v>3</v>
+      </c>
       <c r="CM7" t="inlineStr"/>
       <c r="CN7" t="inlineStr"/>
       <c r="CO7" t="inlineStr"/>
@@ -17250,6 +17379,7 @@
       <c r="CV7" t="inlineStr"/>
       <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17544,6 +17674,7 @@
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17897,7 +18028,9 @@
         <v>0.001410437235543018</v>
       </c>
       <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
+      <c r="CL9" t="n">
+        <v>4</v>
+      </c>
       <c r="CM9" t="inlineStr"/>
       <c r="CN9" t="inlineStr"/>
       <c r="CO9" t="inlineStr"/>
@@ -17910,6 +18043,7 @@
       <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18264,12 +18398,14 @@
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="CM10" t="n">
         <v>0.0004716981132075472</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CN10" t="n">
         <v>0.07075471698113207</v>
       </c>
-      <c r="CN10" t="inlineStr"/>
       <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
@@ -18280,6 +18416,7 @@
       <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18635,7 +18772,9 @@
         <v>0.006369426751592357</v>
       </c>
       <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="inlineStr"/>
+      <c r="CL11" t="n">
+        <v>11</v>
+      </c>
       <c r="CM11" t="inlineStr"/>
       <c r="CN11" t="inlineStr"/>
       <c r="CO11" t="inlineStr"/>
@@ -18648,6 +18787,7 @@
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19009,37 +19149,40 @@
       <c r="CK12" t="n">
         <v>0.02580439630455559</v>
       </c>
-      <c r="CL12" t="inlineStr"/>
+      <c r="CL12" t="n">
+        <v>14</v>
+      </c>
       <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="n">
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="n">
         <v>0.01656578528193692</v>
       </c>
-      <c r="CO12" t="n">
+      <c r="CP12" t="n">
         <v>0.05670595731124562</v>
       </c>
-      <c r="CP12" t="n">
+      <c r="CQ12" t="n">
         <v>0.03408728894552406</v>
       </c>
-      <c r="CQ12" t="n">
+      <c r="CR12" t="n">
         <v>0.07104173303599873</v>
       </c>
-      <c r="CR12" t="n">
+      <c r="CS12" t="n">
         <v>0.1640649888499522</v>
       </c>
-      <c r="CS12" t="n">
+      <c r="CT12" t="n">
         <v>0.1287034087288945</v>
       </c>
-      <c r="CT12" t="n">
+      <c r="CU12" t="n">
         <v>0.03472443453329085</v>
       </c>
-      <c r="CU12" t="n">
+      <c r="CV12" t="n">
         <v>0.0270786874800892</v>
       </c>
-      <c r="CV12" t="n">
+      <c r="CW12" t="n">
         <v>0.02548582351067219</v>
       </c>
-      <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19399,7 +19542,9 @@
       <c r="CK13" t="n">
         <v>0.0007127583749109052</v>
       </c>
-      <c r="CL13" t="inlineStr"/>
+      <c r="CL13" t="n">
+        <v>8</v>
+      </c>
       <c r="CM13" t="inlineStr"/>
       <c r="CN13" t="inlineStr"/>
       <c r="CO13" t="inlineStr"/>
@@ -19412,6 +19557,7 @@
       <c r="CV13" t="inlineStr"/>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19773,14 +19919,16 @@
       <c r="CK14" t="n">
         <v>0.00634455832113226</v>
       </c>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="n">
+      <c r="CL14" t="n">
+        <v>39</v>
+      </c>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="n">
         <v>0.05612493899463153</v>
       </c>
-      <c r="CN14" t="n">
+      <c r="CO14" t="n">
         <v>0.003416300634455832</v>
       </c>
-      <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
@@ -19790,6 +19938,7 @@
       <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20137,7 +20286,9 @@
       <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
+      <c r="CL15" t="n">
+        <v>7</v>
+      </c>
       <c r="CM15" t="inlineStr"/>
       <c r="CN15" t="inlineStr"/>
       <c r="CO15" t="inlineStr"/>
@@ -20150,6 +20301,7 @@
       <c r="CV15" t="inlineStr"/>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20505,12 +20657,14 @@
         <v>0.002243829468960359</v>
       </c>
       <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
+      <c r="CL16" t="n">
+        <v>2</v>
+      </c>
       <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="n">
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="n">
         <v>0.0007479431563201197</v>
       </c>
-      <c r="CO16" t="inlineStr"/>
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr"/>
@@ -20520,6 +20674,7 @@
       <c r="CV16" t="inlineStr"/>
       <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20873,7 +21028,9 @@
       <c r="CK17" t="n">
         <v>0.003912363067292645</v>
       </c>
-      <c r="CL17" t="inlineStr"/>
+      <c r="CL17" t="n">
+        <v>9</v>
+      </c>
       <c r="CM17" t="inlineStr"/>
       <c r="CN17" t="inlineStr"/>
       <c r="CO17" t="inlineStr"/>
@@ -20886,6 +21043,7 @@
       <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -21241,7 +21399,9 @@
       </c>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
-      <c r="CL18" t="inlineStr"/>
+      <c r="CL18" t="n">
+        <v>27</v>
+      </c>
       <c r="CM18" t="inlineStr"/>
       <c r="CN18" t="inlineStr"/>
       <c r="CO18" t="inlineStr"/>
@@ -21254,6 +21414,7 @@
       <c r="CV18" t="inlineStr"/>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -21616,15 +21777,17 @@
         <v>0.006376811594202898</v>
       </c>
       <c r="CL19" t="n">
+        <v>31</v>
+      </c>
+      <c r="CM19" t="n">
         <v>0.0005797101449275362</v>
       </c>
-      <c r="CM19" t="n">
+      <c r="CN19" t="n">
         <v>0.06376811594202898</v>
       </c>
-      <c r="CN19" t="n">
+      <c r="CO19" t="n">
         <v>0.001739130434782609</v>
       </c>
-      <c r="CO19" t="inlineStr"/>
       <c r="CP19" t="inlineStr"/>
       <c r="CQ19" t="inlineStr"/>
       <c r="CR19" t="inlineStr"/>
@@ -21634,6 +21797,7 @@
       <c r="CV19" t="inlineStr"/>
       <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -21991,7 +22155,9 @@
         <v>0.003436426116838488</v>
       </c>
       <c r="CK20" t="inlineStr"/>
-      <c r="CL20" t="inlineStr"/>
+      <c r="CL20" t="n">
+        <v>4</v>
+      </c>
       <c r="CM20" t="inlineStr"/>
       <c r="CN20" t="inlineStr"/>
       <c r="CO20" t="inlineStr"/>
@@ -22004,6 +22170,7 @@
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22363,7 +22530,9 @@
       <c r="CK21" t="n">
         <v>0.0007097232079489</v>
       </c>
-      <c r="CL21" t="inlineStr"/>
+      <c r="CL21" t="n">
+        <v>6</v>
+      </c>
       <c r="CM21" t="inlineStr"/>
       <c r="CN21" t="inlineStr"/>
       <c r="CO21" t="inlineStr"/>
@@ -22376,6 +22545,7 @@
       <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -22736,16 +22906,18 @@
       </c>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="n">
+        <v>50</v>
+      </c>
+      <c r="CM22" t="n">
         <v>0.0009358914365933552</v>
       </c>
-      <c r="CM22" t="n">
+      <c r="CN22" t="n">
         <v>0.04258306036499766</v>
       </c>
-      <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="n">
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="n">
         <v>0.0004679457182966776</v>
       </c>
-      <c r="CP22" t="inlineStr"/>
       <c r="CQ22" t="inlineStr"/>
       <c r="CR22" t="inlineStr"/>
       <c r="CS22" t="inlineStr"/>
@@ -22754,6 +22926,7 @@
       <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="inlineStr"/>
       <c r="CX22" t="inlineStr"/>
+      <c r="CY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -23048,6 +23221,7 @@
       <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="inlineStr"/>
       <c r="CX23" t="inlineStr"/>
+      <c r="CY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -23410,15 +23584,17 @@
         <v>0.146640646780039</v>
       </c>
       <c r="CL24" t="n">
+        <v>92</v>
+      </c>
+      <c r="CM24" t="n">
         <v>0.0005575689991636465</v>
       </c>
-      <c r="CM24" t="n">
+      <c r="CN24" t="n">
         <v>0.02453303596320044</v>
       </c>
-      <c r="CN24" t="n">
+      <c r="CO24" t="n">
         <v>0.05854474491218288</v>
       </c>
-      <c r="CO24" t="inlineStr"/>
       <c r="CP24" t="inlineStr"/>
       <c r="CQ24" t="inlineStr"/>
       <c r="CR24" t="inlineStr"/>
@@ -23428,6 +23604,7 @@
       <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="inlineStr"/>
+      <c r="CY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -23787,11 +23964,13 @@
         <v>0.006912442396313364</v>
       </c>
       <c r="CK25" t="inlineStr"/>
-      <c r="CL25" t="inlineStr"/>
-      <c r="CM25" t="n">
+      <c r="CL25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="n">
         <v>0.001536098310291859</v>
       </c>
-      <c r="CN25" t="inlineStr"/>
       <c r="CO25" t="inlineStr"/>
       <c r="CP25" t="inlineStr"/>
       <c r="CQ25" t="inlineStr"/>
@@ -23802,6 +23981,7 @@
       <c r="CV25" t="inlineStr"/>
       <c r="CW25" t="inlineStr"/>
       <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -24096,6 +24276,7 @@
       <c r="CV26" t="inlineStr"/>
       <c r="CW26" t="inlineStr"/>
       <c r="CX26" t="inlineStr"/>
+      <c r="CY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -24458,12 +24639,14 @@
         <v>0.04768534632788026</v>
       </c>
       <c r="CL27" t="n">
+        <v>71</v>
+      </c>
+      <c r="CM27" t="n">
         <v>0.0006961364427427776</v>
       </c>
-      <c r="CM27" t="n">
+      <c r="CN27" t="n">
         <v>0.02993386703793944</v>
       </c>
-      <c r="CN27" t="inlineStr"/>
       <c r="CO27" t="inlineStr"/>
       <c r="CP27" t="inlineStr"/>
       <c r="CQ27" t="inlineStr"/>
@@ -24472,10 +24655,11 @@
       <c r="CT27" t="inlineStr"/>
       <c r="CU27" t="inlineStr"/>
       <c r="CV27" t="inlineStr"/>
-      <c r="CW27" t="n">
+      <c r="CW27" t="inlineStr"/>
+      <c r="CX27" t="n">
         <v>0.0003480682213713888</v>
       </c>
-      <c r="CX27" t="n">
+      <c r="CY27" t="n">
         <v>0.0003480682213713888</v>
       </c>
     </row>
@@ -24772,6 +24956,7 @@
       <c r="CV28" t="inlineStr"/>
       <c r="CW28" t="inlineStr"/>
       <c r="CX28" t="inlineStr"/>
+      <c r="CY28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
